--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>0.06423343042999999</v>
+        <v>0.2205245473222222</v>
       </c>
       <c r="R2">
-        <v>0.5781008738699999</v>
+        <v>1.9847209259</v>
       </c>
       <c r="S2">
-        <v>0.02561409903567678</v>
+        <v>0.07269648780554862</v>
       </c>
       <c r="T2">
-        <v>0.02561409903567678</v>
+        <v>0.07269648780554862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>0.03976710495333333</v>
+        <v>0.06938361999333333</v>
       </c>
       <c r="R3">
-        <v>0.35790394458</v>
+        <v>0.62445257994</v>
       </c>
       <c r="S3">
-        <v>0.01585776375040215</v>
+        <v>0.02287248991551109</v>
       </c>
       <c r="T3">
-        <v>0.01585776375040216</v>
+        <v>0.02287248991551109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H4">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>0.02677453761666667</v>
+        <v>0.04011864598333333</v>
       </c>
       <c r="R4">
-        <v>0.24097083855</v>
+        <v>0.36106781385</v>
       </c>
       <c r="S4">
-        <v>0.01067677148109235</v>
+        <v>0.01322521548696824</v>
       </c>
       <c r="T4">
-        <v>0.01067677148109235</v>
+        <v>0.01322521548696824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H5">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.001287075363888889</v>
+        <v>0.001192909057222222</v>
       </c>
       <c r="R5">
-        <v>0.011583678275</v>
+        <v>0.010736181515</v>
       </c>
       <c r="S5">
-        <v>0.0005132417125527283</v>
+        <v>0.000393245558304089</v>
       </c>
       <c r="T5">
-        <v>0.0005132417125527283</v>
+        <v>0.000393245558304089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
         <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>0.833539809766</v>
+        <v>1.640171231117778</v>
       </c>
       <c r="R6">
-        <v>7.501858287894001</v>
+        <v>14.76154108006</v>
       </c>
       <c r="S6">
-        <v>0.3323872179112809</v>
+        <v>0.5406866915715461</v>
       </c>
       <c r="T6">
-        <v>0.3323872179112809</v>
+        <v>0.540686691571546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
         <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
-        <v>0.5160469381106667</v>
+        <v>0.5160469381106666</v>
       </c>
       <c r="R7">
-        <v>4.644422442996</v>
+        <v>4.644422442995999</v>
       </c>
       <c r="S7">
-        <v>0.2057819003490576</v>
+        <v>0.1701162088256667</v>
       </c>
       <c r="T7">
-        <v>0.2057819003490576</v>
+        <v>0.1701162088256667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
         <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>0.3474459147233334</v>
+        <v>0.2983860516766667</v>
       </c>
       <c r="R8">
-        <v>3.127013232510001</v>
+        <v>2.68547446509</v>
       </c>
       <c r="S8">
-        <v>0.1385495684986534</v>
+        <v>0.0983637342438963</v>
       </c>
       <c r="T8">
-        <v>0.1385495684986534</v>
+        <v>0.09836373424389629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H9">
         <v>1.436459</v>
       </c>
       <c r="I9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>0.01670202800611111</v>
+        <v>0.008872368816777778</v>
       </c>
       <c r="R9">
-        <v>0.150318252055</v>
+        <v>0.079851319351</v>
       </c>
       <c r="S9">
-        <v>0.006660198538071094</v>
+        <v>0.002924799344686015</v>
       </c>
       <c r="T9">
-        <v>0.006660198538071094</v>
+        <v>0.002924799344686014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H10">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I10">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J10">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>0.249908344402</v>
+        <v>0.1455163998466666</v>
       </c>
       <c r="R10">
-        <v>2.249175099618</v>
+        <v>1.30964759862</v>
       </c>
       <c r="S10">
-        <v>0.09965491552456775</v>
+        <v>0.04796985784763266</v>
       </c>
       <c r="T10">
-        <v>0.09965491552456776</v>
+        <v>0.04796985784763266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H11">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I11">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J11">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>0.1547189881346667</v>
+        <v>0.04578381278799999</v>
       </c>
       <c r="R11">
-        <v>1.392470893212</v>
+        <v>0.412054315092</v>
       </c>
       <c r="S11">
-        <v>0.06169665014388136</v>
+        <v>0.01509275238720315</v>
       </c>
       <c r="T11">
-        <v>0.06169665014388138</v>
+        <v>0.01509275238720315</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H12">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I12">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J12">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>0.1041697496633334</v>
+        <v>0.02647288477</v>
       </c>
       <c r="R12">
-        <v>0.9375277469700002</v>
+        <v>0.23825596293</v>
       </c>
       <c r="S12">
-        <v>0.04153933966372903</v>
+        <v>0.008726854983849088</v>
       </c>
       <c r="T12">
-        <v>0.04153933966372904</v>
+        <v>0.008726854983849088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H13">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I13">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J13">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>0.005007530676111111</v>
+        <v>0.0007871587696666666</v>
       </c>
       <c r="R13">
-        <v>0.045067776085</v>
+        <v>0.007084428927</v>
       </c>
       <c r="S13">
-        <v>0.001996832269481198</v>
+        <v>0.000259488925813281</v>
       </c>
       <c r="T13">
-        <v>0.001996832269481198</v>
+        <v>0.000259488925813281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H14">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I14">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J14">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>0.072051462032</v>
+        <v>0.01347570718666666</v>
       </c>
       <c r="R14">
-        <v>0.6484631582879999</v>
+        <v>0.12128136468</v>
       </c>
       <c r="S14">
-        <v>0.02873166311994141</v>
+        <v>0.004442301753079891</v>
       </c>
       <c r="T14">
-        <v>0.02873166311994142</v>
+        <v>0.004442301753079891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H15">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I15">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J15">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>0.04460727122133333</v>
+        <v>0.004239860632</v>
       </c>
       <c r="R15">
-        <v>0.401465440992</v>
+        <v>0.038158745688</v>
       </c>
       <c r="S15">
-        <v>0.01778785680798532</v>
+        <v>0.001397681031314168</v>
       </c>
       <c r="T15">
-        <v>0.01778785680798532</v>
+        <v>0.001397681031314168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H16">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I16">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J16">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>0.03003334194666667</v>
+        <v>0.00245155078</v>
       </c>
       <c r="R16">
-        <v>0.27030007752</v>
+        <v>0.02206395702</v>
       </c>
       <c r="S16">
-        <v>0.01197627138772551</v>
+        <v>0.0008081600599435585</v>
       </c>
       <c r="T16">
-        <v>0.01197627138772551</v>
+        <v>0.0008081600599435584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H17">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I17">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J17">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.001443728928888889</v>
+        <v>7.289570866666666E-05</v>
       </c>
       <c r="R17">
-        <v>0.01299356036</v>
+        <v>0.000656061378</v>
       </c>
       <c r="S17">
-        <v>0.000575709805901325</v>
+        <v>2.403025903696823E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005757098059013252</v>
+        <v>2.403025903696822E-05</v>
       </c>
     </row>
   </sheetData>
